--- a/biology/Zoologie/Aiglefin/Aiglefin.xlsx
+++ b/biology/Zoologie/Aiglefin/Aiglefin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melanogrammus aeglefinus
-L’aiglefin ou églefin[1] (Melanogrammus aeglefinus) ou ânon ou haddock (s'il est fumé), est une espèce de poissons de la famille des Gadidae, unique représentant du genre Melanogrammus (monotypique).
+L’aiglefin ou églefin (Melanogrammus aeglefinus) ou ânon ou haddock (s'il est fumé), est une espèce de poissons de la famille des Gadidae, unique représentant du genre Melanogrammus (monotypique).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aiglefin possède l'aspect général des poissons de sa famille, les Gadidae : corps fusiforme et trois nageoires dorsales. Son dos est noir. Il possède une tache noire au-dessus de la nageoire pectorale.
 La taille de l'aiglefin que l'on peut trouver dans le commerce oscille entre 30 et 50 cm.
@@ -544,9 +558,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve dans l'Atlantique Nord. Les adultes vivent à proximité du fond, entre 80 et 200 m, dans des eaux comprises entre 4 et 10 °C[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve dans l'Atlantique Nord. Les adultes vivent à proximité du fond, entre 80 et 200 m, dans des eaux comprises entre 4 et 10 °C.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se nourrit de crustacés, de mollusques, d'échinodermes, de vers et de poissons[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrit de crustacés, de mollusques, d'échinodermes, de vers et de poissons.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Appellations commerciales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, il est appelé « ânon », « habillot » ou encore « bourricot ».
 </t>
@@ -637,7 +657,9 @@
           <t>Gastronomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aiglefin se consomme frais ou fumé.
 Lorsqu’il est fumé, il est souvent appelé par son nom anglophone de haddock. Les filets sont alors traditionnellement teints au roucou (E160b), qui leur donne une couleur orange vif semblable à celle de la mimolette (dont la teinte est d'ailleurs obtenue grâce à ce même colorant alimentaire) ; mais, depuis 2018, certains magasins le proposent non teint.
